--- a/products/fixtures/articles.xlsx
+++ b/products/fixtures/articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djang\Documents\Soccersystems\products\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC677C4-8EDD-4D37-A4E8-3955508C59CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD070F5-5CAA-4DB9-9B02-7370F569AA64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="379">
   <si>
     <t>id</t>
   </si>
@@ -769,9 +769,6 @@
     <t>Naamblok KUDUS</t>
   </si>
   <si>
-    <t>serial</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
@@ -797,6 +794,369 @@
   </si>
   <si>
     <t>item_group</t>
+  </si>
+  <si>
+    <t>XA202500</t>
+  </si>
+  <si>
+    <t>XA202501</t>
+  </si>
+  <si>
+    <t>XA202502</t>
+  </si>
+  <si>
+    <t>XA202503</t>
+  </si>
+  <si>
+    <t>XA202504</t>
+  </si>
+  <si>
+    <t>XA202505</t>
+  </si>
+  <si>
+    <t>XA202506</t>
+  </si>
+  <si>
+    <t>XA202507</t>
+  </si>
+  <si>
+    <t>XA202508</t>
+  </si>
+  <si>
+    <t>XA202509</t>
+  </si>
+  <si>
+    <t>XA201600</t>
+  </si>
+  <si>
+    <t>XA201601</t>
+  </si>
+  <si>
+    <t>XA201602</t>
+  </si>
+  <si>
+    <t>XA201603</t>
+  </si>
+  <si>
+    <t>XA201604</t>
+  </si>
+  <si>
+    <t>XA201605</t>
+  </si>
+  <si>
+    <t>XA201606</t>
+  </si>
+  <si>
+    <t>XA201607</t>
+  </si>
+  <si>
+    <t>XA201608</t>
+  </si>
+  <si>
+    <t>XA201609</t>
+  </si>
+  <si>
+    <t>XA201000</t>
+  </si>
+  <si>
+    <t>XA201001</t>
+  </si>
+  <si>
+    <t>XA201002</t>
+  </si>
+  <si>
+    <t>XA201003</t>
+  </si>
+  <si>
+    <t>XA201004</t>
+  </si>
+  <si>
+    <t>XA201005</t>
+  </si>
+  <si>
+    <t>XA201006</t>
+  </si>
+  <si>
+    <t>XA201007</t>
+  </si>
+  <si>
+    <t>XA201008</t>
+  </si>
+  <si>
+    <t>XA201009</t>
+  </si>
+  <si>
+    <t>XA20060A</t>
+  </si>
+  <si>
+    <t>XA20060B</t>
+  </si>
+  <si>
+    <t>XA20060C</t>
+  </si>
+  <si>
+    <t>XA20060D</t>
+  </si>
+  <si>
+    <t>XA20060E</t>
+  </si>
+  <si>
+    <t>XA20060F</t>
+  </si>
+  <si>
+    <t>XA20060G</t>
+  </si>
+  <si>
+    <t>XA20060H</t>
+  </si>
+  <si>
+    <t>XA20060I</t>
+  </si>
+  <si>
+    <t>XA20060J</t>
+  </si>
+  <si>
+    <t>XA20060K</t>
+  </si>
+  <si>
+    <t>XA20060L</t>
+  </si>
+  <si>
+    <t>XA20060M</t>
+  </si>
+  <si>
+    <t>XA20060N</t>
+  </si>
+  <si>
+    <t>XA20060O</t>
+  </si>
+  <si>
+    <t>XA20060P</t>
+  </si>
+  <si>
+    <t>XA20060Q</t>
+  </si>
+  <si>
+    <t>XA20060R</t>
+  </si>
+  <si>
+    <t>XA20060S</t>
+  </si>
+  <si>
+    <t>XA20060T</t>
+  </si>
+  <si>
+    <t>XA20060U</t>
+  </si>
+  <si>
+    <t>XA20060V</t>
+  </si>
+  <si>
+    <t>XA20060W</t>
+  </si>
+  <si>
+    <t>XA20060X</t>
+  </si>
+  <si>
+    <t>XA20060Y</t>
+  </si>
+  <si>
+    <t>XA20060Z</t>
+  </si>
+  <si>
+    <t>XA20060_</t>
+  </si>
+  <si>
+    <t>XA200600</t>
+  </si>
+  <si>
+    <t>XA2006AZ</t>
+  </si>
+  <si>
+    <t>XA2006AY</t>
+  </si>
+  <si>
+    <t>XA2006BL</t>
+  </si>
+  <si>
+    <t>XA2006BD</t>
+  </si>
+  <si>
+    <t>XA2006BN</t>
+  </si>
+  <si>
+    <t>XA2006DO</t>
+  </si>
+  <si>
+    <t>XA2006DW</t>
+  </si>
+  <si>
+    <t>XA2006DS</t>
+  </si>
+  <si>
+    <t>XA2006EG</t>
+  </si>
+  <si>
+    <t>XA2006EP</t>
+  </si>
+  <si>
+    <t>XA2006GH</t>
+  </si>
+  <si>
+    <t>XA2006HN</t>
+  </si>
+  <si>
+    <t>XA2006HR</t>
+  </si>
+  <si>
+    <t>XA2006JR</t>
+  </si>
+  <si>
+    <t>XA2006KN</t>
+  </si>
+  <si>
+    <t>XA2006KR</t>
+  </si>
+  <si>
+    <t>XA2006KS</t>
+  </si>
+  <si>
+    <t>XA2006LD</t>
+  </si>
+  <si>
+    <t>XA2006LG</t>
+  </si>
+  <si>
+    <t>XA2006MN</t>
+  </si>
+  <si>
+    <t>XA2006MZ</t>
+  </si>
+  <si>
+    <t>XA2006MI</t>
+  </si>
+  <si>
+    <t>XA2006NS</t>
+  </si>
+  <si>
+    <t>XA2006PE</t>
+  </si>
+  <si>
+    <t>XA2006PS</t>
+  </si>
+  <si>
+    <t>XA2006QR</t>
+  </si>
+  <si>
+    <t>XA2006SS</t>
+  </si>
+  <si>
+    <t>XA2006TC</t>
+  </si>
+  <si>
+    <t>XA2006TO</t>
+  </si>
+  <si>
+    <t>XA2006TR</t>
+  </si>
+  <si>
+    <t>XA2006TE</t>
+  </si>
+  <si>
+    <t>XA2006UR</t>
+  </si>
+  <si>
+    <t>XA2006VK</t>
+  </si>
+  <si>
+    <t>XA2006ZH</t>
+  </si>
+  <si>
+    <t>XA20040A</t>
+  </si>
+  <si>
+    <t>XA20040B</t>
+  </si>
+  <si>
+    <t>XA20040C</t>
+  </si>
+  <si>
+    <t>XA20040D</t>
+  </si>
+  <si>
+    <t>XA20040E</t>
+  </si>
+  <si>
+    <t>XA20040F</t>
+  </si>
+  <si>
+    <t>XA20040G</t>
+  </si>
+  <si>
+    <t>XA20040H</t>
+  </si>
+  <si>
+    <t>XA20040I</t>
+  </si>
+  <si>
+    <t>XA20040J</t>
+  </si>
+  <si>
+    <t>XA20040K</t>
+  </si>
+  <si>
+    <t>XA20040L</t>
+  </si>
+  <si>
+    <t>XA20040M</t>
+  </si>
+  <si>
+    <t>XA20040N</t>
+  </si>
+  <si>
+    <t>XA20040O</t>
+  </si>
+  <si>
+    <t>XA20040P</t>
+  </si>
+  <si>
+    <t>XA20040Q</t>
+  </si>
+  <si>
+    <t>XA20040R</t>
+  </si>
+  <si>
+    <t>XA20040S</t>
+  </si>
+  <si>
+    <t>XA20040T</t>
+  </si>
+  <si>
+    <t>XA20040U</t>
+  </si>
+  <si>
+    <t>XA20040V</t>
+  </si>
+  <si>
+    <t>XA20040W</t>
+  </si>
+  <si>
+    <t>XA20040X</t>
+  </si>
+  <si>
+    <t>XA20040Y</t>
+  </si>
+  <si>
+    <t>XA20040Z</t>
+  </si>
+  <si>
+    <t>XA200400</t>
+  </si>
+  <si>
+    <t>XA20040_</t>
+  </si>
+  <si>
+    <t>slug</t>
   </si>
 </sst>
 </file>
@@ -1167,10 +1527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:H251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134:B251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,22 +1548,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -2962,7 +3322,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>188</v>
@@ -3352,10 +3712,10 @@
         <v>1</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F84" s="4">
         <v>6</v>
@@ -3378,10 +3738,10 @@
         <v>1</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F85" s="4">
         <v>6</v>
@@ -4574,7 +4934,7 @@
         <v>2</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>246</v>
@@ -4586,6 +4946,3126 @@
         <v>0.13</v>
       </c>
       <c r="H131" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>131</v>
+      </c>
+      <c r="B132" s="2">
+        <v>3</v>
+      </c>
+      <c r="C132" s="2">
+        <v>3</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F132" s="4">
+        <v>25</v>
+      </c>
+      <c r="G132" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>132</v>
+      </c>
+      <c r="B133" s="2">
+        <v>3</v>
+      </c>
+      <c r="C133" s="2">
+        <v>3</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F133" s="4">
+        <v>25</v>
+      </c>
+      <c r="G133" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>133</v>
+      </c>
+      <c r="B134" s="2">
+        <v>3</v>
+      </c>
+      <c r="C134" s="2">
+        <v>3</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F134" s="4">
+        <v>25</v>
+      </c>
+      <c r="G134" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>134</v>
+      </c>
+      <c r="B135" s="2">
+        <v>3</v>
+      </c>
+      <c r="C135" s="2">
+        <v>3</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F135" s="4">
+        <v>25</v>
+      </c>
+      <c r="G135" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>135</v>
+      </c>
+      <c r="B136" s="2">
+        <v>3</v>
+      </c>
+      <c r="C136" s="2">
+        <v>3</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F136" s="4">
+        <v>25</v>
+      </c>
+      <c r="G136" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>136</v>
+      </c>
+      <c r="B137" s="2">
+        <v>3</v>
+      </c>
+      <c r="C137" s="2">
+        <v>3</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F137" s="4">
+        <v>25</v>
+      </c>
+      <c r="G137" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>137</v>
+      </c>
+      <c r="B138" s="2">
+        <v>3</v>
+      </c>
+      <c r="C138" s="2">
+        <v>3</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F138" s="4">
+        <v>25</v>
+      </c>
+      <c r="G138" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>138</v>
+      </c>
+      <c r="B139" s="2">
+        <v>3</v>
+      </c>
+      <c r="C139" s="2">
+        <v>3</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F139" s="4">
+        <v>25</v>
+      </c>
+      <c r="G139" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>139</v>
+      </c>
+      <c r="B140" s="2">
+        <v>3</v>
+      </c>
+      <c r="C140" s="2">
+        <v>3</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F140" s="4">
+        <v>25</v>
+      </c>
+      <c r="G140" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>140</v>
+      </c>
+      <c r="B141" s="2">
+        <v>3</v>
+      </c>
+      <c r="C141" s="2">
+        <v>3</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F141" s="4">
+        <v>25</v>
+      </c>
+      <c r="G141" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>141</v>
+      </c>
+      <c r="B142" s="2">
+        <v>3</v>
+      </c>
+      <c r="C142" s="2">
+        <v>3</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F142" s="4">
+        <v>16</v>
+      </c>
+      <c r="G142" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>142</v>
+      </c>
+      <c r="B143" s="2">
+        <v>3</v>
+      </c>
+      <c r="C143" s="2">
+        <v>3</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F143" s="4">
+        <v>16</v>
+      </c>
+      <c r="G143" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>143</v>
+      </c>
+      <c r="B144" s="2">
+        <v>3</v>
+      </c>
+      <c r="C144" s="2">
+        <v>3</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F144" s="4">
+        <v>16</v>
+      </c>
+      <c r="G144" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>144</v>
+      </c>
+      <c r="B145" s="2">
+        <v>3</v>
+      </c>
+      <c r="C145" s="2">
+        <v>3</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F145" s="4">
+        <v>16</v>
+      </c>
+      <c r="G145" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>145</v>
+      </c>
+      <c r="B146" s="2">
+        <v>3</v>
+      </c>
+      <c r="C146" s="2">
+        <v>3</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F146" s="4">
+        <v>16</v>
+      </c>
+      <c r="G146" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>146</v>
+      </c>
+      <c r="B147" s="2">
+        <v>3</v>
+      </c>
+      <c r="C147" s="2">
+        <v>3</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F147" s="4">
+        <v>16</v>
+      </c>
+      <c r="G147" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>147</v>
+      </c>
+      <c r="B148" s="2">
+        <v>3</v>
+      </c>
+      <c r="C148" s="2">
+        <v>3</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F148" s="4">
+        <v>16</v>
+      </c>
+      <c r="G148" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>148</v>
+      </c>
+      <c r="B149" s="2">
+        <v>3</v>
+      </c>
+      <c r="C149" s="2">
+        <v>3</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F149" s="4">
+        <v>16</v>
+      </c>
+      <c r="G149" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>149</v>
+      </c>
+      <c r="B150" s="2">
+        <v>3</v>
+      </c>
+      <c r="C150" s="2">
+        <v>3</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F150" s="4">
+        <v>16</v>
+      </c>
+      <c r="G150" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>150</v>
+      </c>
+      <c r="B151" s="2">
+        <v>3</v>
+      </c>
+      <c r="C151" s="2">
+        <v>3</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F151" s="4">
+        <v>16</v>
+      </c>
+      <c r="G151" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>151</v>
+      </c>
+      <c r="B152" s="2">
+        <v>3</v>
+      </c>
+      <c r="C152" s="2">
+        <v>3</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F152" s="4">
+        <v>10</v>
+      </c>
+      <c r="G152" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>152</v>
+      </c>
+      <c r="B153" s="2">
+        <v>3</v>
+      </c>
+      <c r="C153" s="2">
+        <v>3</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F153" s="4">
+        <v>10</v>
+      </c>
+      <c r="G153" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>153</v>
+      </c>
+      <c r="B154" s="2">
+        <v>3</v>
+      </c>
+      <c r="C154" s="2">
+        <v>3</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F154" s="4">
+        <v>10</v>
+      </c>
+      <c r="G154" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>154</v>
+      </c>
+      <c r="B155" s="2">
+        <v>3</v>
+      </c>
+      <c r="C155" s="2">
+        <v>3</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F155" s="4">
+        <v>10</v>
+      </c>
+      <c r="G155" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>155</v>
+      </c>
+      <c r="B156" s="2">
+        <v>3</v>
+      </c>
+      <c r="C156" s="2">
+        <v>3</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F156" s="4">
+        <v>10</v>
+      </c>
+      <c r="G156" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>156</v>
+      </c>
+      <c r="B157" s="2">
+        <v>3</v>
+      </c>
+      <c r="C157" s="2">
+        <v>3</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F157" s="4">
+        <v>10</v>
+      </c>
+      <c r="G157" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>157</v>
+      </c>
+      <c r="B158" s="2">
+        <v>3</v>
+      </c>
+      <c r="C158" s="2">
+        <v>3</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F158" s="4">
+        <v>10</v>
+      </c>
+      <c r="G158" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>158</v>
+      </c>
+      <c r="B159" s="2">
+        <v>3</v>
+      </c>
+      <c r="C159" s="2">
+        <v>3</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F159" s="4">
+        <v>10</v>
+      </c>
+      <c r="G159" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>159</v>
+      </c>
+      <c r="B160" s="2">
+        <v>3</v>
+      </c>
+      <c r="C160" s="2">
+        <v>3</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F160" s="4">
+        <v>10</v>
+      </c>
+      <c r="G160" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>160</v>
+      </c>
+      <c r="B161" s="2">
+        <v>3</v>
+      </c>
+      <c r="C161" s="2">
+        <v>3</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F161" s="4">
+        <v>10</v>
+      </c>
+      <c r="G161" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>161</v>
+      </c>
+      <c r="B162" s="2">
+        <v>3</v>
+      </c>
+      <c r="C162" s="2">
+        <v>2</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F162" s="4">
+        <v>6</v>
+      </c>
+      <c r="G162" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>162</v>
+      </c>
+      <c r="B163" s="2">
+        <v>3</v>
+      </c>
+      <c r="C163" s="2">
+        <v>2</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F163" s="4">
+        <v>6</v>
+      </c>
+      <c r="G163" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>163</v>
+      </c>
+      <c r="B164" s="2">
+        <v>3</v>
+      </c>
+      <c r="C164" s="2">
+        <v>2</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F164" s="4">
+        <v>6</v>
+      </c>
+      <c r="G164" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>164</v>
+      </c>
+      <c r="B165" s="2">
+        <v>3</v>
+      </c>
+      <c r="C165" s="2">
+        <v>2</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F165" s="4">
+        <v>6</v>
+      </c>
+      <c r="G165" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>165</v>
+      </c>
+      <c r="B166" s="2">
+        <v>3</v>
+      </c>
+      <c r="C166" s="2">
+        <v>2</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F166" s="4">
+        <v>6</v>
+      </c>
+      <c r="G166" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>166</v>
+      </c>
+      <c r="B167" s="2">
+        <v>3</v>
+      </c>
+      <c r="C167" s="2">
+        <v>2</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F167" s="4">
+        <v>6</v>
+      </c>
+      <c r="G167" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>167</v>
+      </c>
+      <c r="B168" s="2">
+        <v>3</v>
+      </c>
+      <c r="C168" s="2">
+        <v>2</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F168" s="4">
+        <v>6</v>
+      </c>
+      <c r="G168" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>168</v>
+      </c>
+      <c r="B169" s="2">
+        <v>3</v>
+      </c>
+      <c r="C169" s="2">
+        <v>2</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F169" s="4">
+        <v>6</v>
+      </c>
+      <c r="G169" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>169</v>
+      </c>
+      <c r="B170" s="2">
+        <v>3</v>
+      </c>
+      <c r="C170" s="2">
+        <v>2</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F170" s="4">
+        <v>6</v>
+      </c>
+      <c r="G170" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>170</v>
+      </c>
+      <c r="B171" s="2">
+        <v>3</v>
+      </c>
+      <c r="C171" s="2">
+        <v>2</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F171" s="4">
+        <v>6</v>
+      </c>
+      <c r="G171" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>171</v>
+      </c>
+      <c r="B172" s="2">
+        <v>3</v>
+      </c>
+      <c r="C172" s="2">
+        <v>2</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F172" s="4">
+        <v>6</v>
+      </c>
+      <c r="G172" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>172</v>
+      </c>
+      <c r="B173" s="2">
+        <v>3</v>
+      </c>
+      <c r="C173" s="2">
+        <v>2</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F173" s="4">
+        <v>6</v>
+      </c>
+      <c r="G173" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>173</v>
+      </c>
+      <c r="B174" s="2">
+        <v>3</v>
+      </c>
+      <c r="C174" s="2">
+        <v>2</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F174" s="4">
+        <v>6</v>
+      </c>
+      <c r="G174" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>174</v>
+      </c>
+      <c r="B175" s="2">
+        <v>3</v>
+      </c>
+      <c r="C175" s="2">
+        <v>2</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F175" s="4">
+        <v>6</v>
+      </c>
+      <c r="G175" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>175</v>
+      </c>
+      <c r="B176" s="2">
+        <v>3</v>
+      </c>
+      <c r="C176" s="2">
+        <v>2</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F176" s="4">
+        <v>6</v>
+      </c>
+      <c r="G176" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>176</v>
+      </c>
+      <c r="B177" s="2">
+        <v>3</v>
+      </c>
+      <c r="C177" s="2">
+        <v>2</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F177" s="4">
+        <v>6</v>
+      </c>
+      <c r="G177" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>177</v>
+      </c>
+      <c r="B178" s="2">
+        <v>3</v>
+      </c>
+      <c r="C178" s="2">
+        <v>2</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F178" s="4">
+        <v>6</v>
+      </c>
+      <c r="G178" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>178</v>
+      </c>
+      <c r="B179" s="2">
+        <v>3</v>
+      </c>
+      <c r="C179" s="2">
+        <v>2</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F179" s="4">
+        <v>6</v>
+      </c>
+      <c r="G179" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>179</v>
+      </c>
+      <c r="B180" s="2">
+        <v>3</v>
+      </c>
+      <c r="C180" s="2">
+        <v>2</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F180" s="4">
+        <v>6</v>
+      </c>
+      <c r="G180" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>180</v>
+      </c>
+      <c r="B181" s="2">
+        <v>3</v>
+      </c>
+      <c r="C181" s="2">
+        <v>2</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F181" s="4">
+        <v>6</v>
+      </c>
+      <c r="G181" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>181</v>
+      </c>
+      <c r="B182" s="2">
+        <v>3</v>
+      </c>
+      <c r="C182" s="2">
+        <v>2</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F182" s="4">
+        <v>6</v>
+      </c>
+      <c r="G182" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>182</v>
+      </c>
+      <c r="B183" s="2">
+        <v>3</v>
+      </c>
+      <c r="C183" s="2">
+        <v>2</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F183" s="4">
+        <v>6</v>
+      </c>
+      <c r="G183" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>183</v>
+      </c>
+      <c r="B184" s="2">
+        <v>3</v>
+      </c>
+      <c r="C184" s="2">
+        <v>2</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F184" s="4">
+        <v>6</v>
+      </c>
+      <c r="G184" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>184</v>
+      </c>
+      <c r="B185" s="2">
+        <v>3</v>
+      </c>
+      <c r="C185" s="2">
+        <v>2</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F185" s="4">
+        <v>6</v>
+      </c>
+      <c r="G185" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>185</v>
+      </c>
+      <c r="B186" s="2">
+        <v>3</v>
+      </c>
+      <c r="C186" s="2">
+        <v>2</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F186" s="4">
+        <v>6</v>
+      </c>
+      <c r="G186" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>186</v>
+      </c>
+      <c r="B187" s="2">
+        <v>3</v>
+      </c>
+      <c r="C187" s="2">
+        <v>2</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F187" s="4">
+        <v>6</v>
+      </c>
+      <c r="G187" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>187</v>
+      </c>
+      <c r="B188" s="2">
+        <v>3</v>
+      </c>
+      <c r="C188" s="2">
+        <v>2</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F188" s="4">
+        <v>6</v>
+      </c>
+      <c r="G188" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>188</v>
+      </c>
+      <c r="B189" s="2">
+        <v>3</v>
+      </c>
+      <c r="C189" s="2">
+        <v>2</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F189" s="4">
+        <v>6</v>
+      </c>
+      <c r="G189" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>189</v>
+      </c>
+      <c r="B190" s="2">
+        <v>3</v>
+      </c>
+      <c r="C190" s="2">
+        <v>1</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F190" s="4">
+        <v>6</v>
+      </c>
+      <c r="G190" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>190</v>
+      </c>
+      <c r="B191" s="2">
+        <v>3</v>
+      </c>
+      <c r="C191" s="2">
+        <v>1</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F191" s="4">
+        <v>6</v>
+      </c>
+      <c r="G191" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H191" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>191</v>
+      </c>
+      <c r="B192" s="2">
+        <v>3</v>
+      </c>
+      <c r="C192" s="2">
+        <v>1</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F192" s="4">
+        <v>6</v>
+      </c>
+      <c r="G192" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>192</v>
+      </c>
+      <c r="B193" s="2">
+        <v>3</v>
+      </c>
+      <c r="C193" s="2">
+        <v>1</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F193" s="4">
+        <v>6</v>
+      </c>
+      <c r="G193" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>193</v>
+      </c>
+      <c r="B194" s="2">
+        <v>3</v>
+      </c>
+      <c r="C194" s="2">
+        <v>1</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F194" s="4">
+        <v>6</v>
+      </c>
+      <c r="G194" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>194</v>
+      </c>
+      <c r="B195" s="2">
+        <v>3</v>
+      </c>
+      <c r="C195" s="2">
+        <v>1</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F195" s="4">
+        <v>6</v>
+      </c>
+      <c r="G195" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>195</v>
+      </c>
+      <c r="B196" s="2">
+        <v>3</v>
+      </c>
+      <c r="C196" s="2">
+        <v>1</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F196" s="4">
+        <v>6</v>
+      </c>
+      <c r="G196" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>196</v>
+      </c>
+      <c r="B197" s="2">
+        <v>3</v>
+      </c>
+      <c r="C197" s="2">
+        <v>1</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F197" s="4">
+        <v>6</v>
+      </c>
+      <c r="G197" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>197</v>
+      </c>
+      <c r="B198" s="2">
+        <v>3</v>
+      </c>
+      <c r="C198" s="2">
+        <v>1</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F198" s="4">
+        <v>6</v>
+      </c>
+      <c r="G198" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H198" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>198</v>
+      </c>
+      <c r="B199" s="2">
+        <v>3</v>
+      </c>
+      <c r="C199" s="2">
+        <v>1</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F199" s="4">
+        <v>6</v>
+      </c>
+      <c r="G199" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>199</v>
+      </c>
+      <c r="B200" s="2">
+        <v>3</v>
+      </c>
+      <c r="C200" s="2">
+        <v>1</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F200" s="4">
+        <v>6</v>
+      </c>
+      <c r="G200" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>200</v>
+      </c>
+      <c r="B201" s="2">
+        <v>3</v>
+      </c>
+      <c r="C201" s="2">
+        <v>1</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F201" s="4">
+        <v>6</v>
+      </c>
+      <c r="G201" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>201</v>
+      </c>
+      <c r="B202" s="2">
+        <v>3</v>
+      </c>
+      <c r="C202" s="2">
+        <v>1</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="F202" s="4">
+        <v>6</v>
+      </c>
+      <c r="G202" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>202</v>
+      </c>
+      <c r="B203" s="2">
+        <v>3</v>
+      </c>
+      <c r="C203" s="2">
+        <v>1</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F203" s="4">
+        <v>6</v>
+      </c>
+      <c r="G203" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>203</v>
+      </c>
+      <c r="B204" s="2">
+        <v>3</v>
+      </c>
+      <c r="C204" s="2">
+        <v>1</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F204" s="4">
+        <v>6</v>
+      </c>
+      <c r="G204" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>204</v>
+      </c>
+      <c r="B205" s="2">
+        <v>3</v>
+      </c>
+      <c r="C205" s="2">
+        <v>1</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F205" s="4">
+        <v>6</v>
+      </c>
+      <c r="G205" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H205" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
+        <v>205</v>
+      </c>
+      <c r="B206" s="2">
+        <v>3</v>
+      </c>
+      <c r="C206" s="2">
+        <v>1</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F206" s="4">
+        <v>6</v>
+      </c>
+      <c r="G206" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
+        <v>206</v>
+      </c>
+      <c r="B207" s="2">
+        <v>3</v>
+      </c>
+      <c r="C207" s="2">
+        <v>1</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F207" s="4">
+        <v>6</v>
+      </c>
+      <c r="G207" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
+        <v>207</v>
+      </c>
+      <c r="B208" s="2">
+        <v>3</v>
+      </c>
+      <c r="C208" s="2">
+        <v>1</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F208" s="4">
+        <v>6</v>
+      </c>
+      <c r="G208" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H208" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
+        <v>208</v>
+      </c>
+      <c r="B209" s="2">
+        <v>3</v>
+      </c>
+      <c r="C209" s="2">
+        <v>1</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F209" s="4">
+        <v>6</v>
+      </c>
+      <c r="G209" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
+        <v>209</v>
+      </c>
+      <c r="B210" s="2">
+        <v>3</v>
+      </c>
+      <c r="C210" s="2">
+        <v>1</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F210" s="4">
+        <v>6</v>
+      </c>
+      <c r="G210" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H210" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
+        <v>210</v>
+      </c>
+      <c r="B211" s="2">
+        <v>3</v>
+      </c>
+      <c r="C211" s="2">
+        <v>1</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F211" s="4">
+        <v>6</v>
+      </c>
+      <c r="G211" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H211" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
+        <v>211</v>
+      </c>
+      <c r="B212" s="2">
+        <v>3</v>
+      </c>
+      <c r="C212" s="2">
+        <v>1</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F212" s="4">
+        <v>6</v>
+      </c>
+      <c r="G212" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H212" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
+        <v>212</v>
+      </c>
+      <c r="B213" s="2">
+        <v>3</v>
+      </c>
+      <c r="C213" s="2">
+        <v>1</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F213" s="4">
+        <v>6</v>
+      </c>
+      <c r="G213" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H213" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
+        <v>213</v>
+      </c>
+      <c r="B214" s="2">
+        <v>3</v>
+      </c>
+      <c r="C214" s="2">
+        <v>1</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F214" s="4">
+        <v>6</v>
+      </c>
+      <c r="G214" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H214" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
+        <v>214</v>
+      </c>
+      <c r="B215" s="2">
+        <v>3</v>
+      </c>
+      <c r="C215" s="2">
+        <v>1</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F215" s="4">
+        <v>6</v>
+      </c>
+      <c r="G215" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H215" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
+        <v>215</v>
+      </c>
+      <c r="B216" s="2">
+        <v>3</v>
+      </c>
+      <c r="C216" s="2">
+        <v>1</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F216" s="4">
+        <v>6</v>
+      </c>
+      <c r="G216" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H216" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="2">
+        <v>216</v>
+      </c>
+      <c r="B217" s="2">
+        <v>3</v>
+      </c>
+      <c r="C217" s="2">
+        <v>1</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F217" s="4">
+        <v>6</v>
+      </c>
+      <c r="G217" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H217" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="2">
+        <v>217</v>
+      </c>
+      <c r="B218" s="2">
+        <v>3</v>
+      </c>
+      <c r="C218" s="2">
+        <v>1</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F218" s="4">
+        <v>6</v>
+      </c>
+      <c r="G218" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H218" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="2">
+        <v>218</v>
+      </c>
+      <c r="B219" s="2">
+        <v>3</v>
+      </c>
+      <c r="C219" s="2">
+        <v>1</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F219" s="4">
+        <v>6</v>
+      </c>
+      <c r="G219" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H219" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
+        <v>219</v>
+      </c>
+      <c r="B220" s="2">
+        <v>3</v>
+      </c>
+      <c r="C220" s="2">
+        <v>1</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F220" s="4">
+        <v>6</v>
+      </c>
+      <c r="G220" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H220" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="2">
+        <v>220</v>
+      </c>
+      <c r="B221" s="2">
+        <v>3</v>
+      </c>
+      <c r="C221" s="2">
+        <v>1</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F221" s="4">
+        <v>6</v>
+      </c>
+      <c r="G221" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H221" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
+        <v>221</v>
+      </c>
+      <c r="B222" s="2">
+        <v>3</v>
+      </c>
+      <c r="C222" s="2">
+        <v>1</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F222" s="4">
+        <v>6</v>
+      </c>
+      <c r="G222" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H222" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="2">
+        <v>222</v>
+      </c>
+      <c r="B223" s="2">
+        <v>3</v>
+      </c>
+      <c r="C223" s="2">
+        <v>1</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F223" s="4">
+        <v>6</v>
+      </c>
+      <c r="G223" s="4">
+        <v>1.95</v>
+      </c>
+      <c r="H223" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="2">
+        <v>223</v>
+      </c>
+      <c r="B224" s="2">
+        <v>3</v>
+      </c>
+      <c r="C224" s="2">
+        <v>2</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F224" s="4">
+        <v>4</v>
+      </c>
+      <c r="G224" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H224" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
+        <v>224</v>
+      </c>
+      <c r="B225" s="2">
+        <v>3</v>
+      </c>
+      <c r="C225" s="2">
+        <v>2</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F225" s="4">
+        <v>4</v>
+      </c>
+      <c r="G225" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H225" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="2">
+        <v>225</v>
+      </c>
+      <c r="B226" s="2">
+        <v>3</v>
+      </c>
+      <c r="C226" s="2">
+        <v>2</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F226" s="4">
+        <v>4</v>
+      </c>
+      <c r="G226" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H226" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="2">
+        <v>226</v>
+      </c>
+      <c r="B227" s="2">
+        <v>3</v>
+      </c>
+      <c r="C227" s="2">
+        <v>2</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F227" s="4">
+        <v>4</v>
+      </c>
+      <c r="G227" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H227" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
+        <v>227</v>
+      </c>
+      <c r="B228" s="2">
+        <v>3</v>
+      </c>
+      <c r="C228" s="2">
+        <v>2</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F228" s="4">
+        <v>4</v>
+      </c>
+      <c r="G228" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H228" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
+        <v>228</v>
+      </c>
+      <c r="B229" s="2">
+        <v>3</v>
+      </c>
+      <c r="C229" s="2">
+        <v>2</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F229" s="4">
+        <v>4</v>
+      </c>
+      <c r="G229" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H229" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
+        <v>229</v>
+      </c>
+      <c r="B230" s="2">
+        <v>3</v>
+      </c>
+      <c r="C230" s="2">
+        <v>2</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F230" s="4">
+        <v>4</v>
+      </c>
+      <c r="G230" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H230" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="2">
+        <v>230</v>
+      </c>
+      <c r="B231" s="2">
+        <v>3</v>
+      </c>
+      <c r="C231" s="2">
+        <v>2</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F231" s="4">
+        <v>4</v>
+      </c>
+      <c r="G231" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H231" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="2">
+        <v>231</v>
+      </c>
+      <c r="B232" s="2">
+        <v>3</v>
+      </c>
+      <c r="C232" s="2">
+        <v>2</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F232" s="4">
+        <v>4</v>
+      </c>
+      <c r="G232" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H232" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="2">
+        <v>232</v>
+      </c>
+      <c r="B233" s="2">
+        <v>3</v>
+      </c>
+      <c r="C233" s="2">
+        <v>2</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F233" s="4">
+        <v>4</v>
+      </c>
+      <c r="G233" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H233" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="2">
+        <v>233</v>
+      </c>
+      <c r="B234" s="2">
+        <v>3</v>
+      </c>
+      <c r="C234" s="2">
+        <v>2</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F234" s="4">
+        <v>4</v>
+      </c>
+      <c r="G234" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H234" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="2">
+        <v>234</v>
+      </c>
+      <c r="B235" s="2">
+        <v>3</v>
+      </c>
+      <c r="C235" s="2">
+        <v>2</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F235" s="4">
+        <v>4</v>
+      </c>
+      <c r="G235" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H235" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="2">
+        <v>235</v>
+      </c>
+      <c r="B236" s="2">
+        <v>3</v>
+      </c>
+      <c r="C236" s="2">
+        <v>2</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F236" s="4">
+        <v>4</v>
+      </c>
+      <c r="G236" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H236" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="2">
+        <v>236</v>
+      </c>
+      <c r="B237" s="2">
+        <v>3</v>
+      </c>
+      <c r="C237" s="2">
+        <v>2</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F237" s="4">
+        <v>4</v>
+      </c>
+      <c r="G237" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H237" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="2">
+        <v>237</v>
+      </c>
+      <c r="B238" s="2">
+        <v>3</v>
+      </c>
+      <c r="C238" s="2">
+        <v>2</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F238" s="4">
+        <v>4</v>
+      </c>
+      <c r="G238" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H238" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="2">
+        <v>238</v>
+      </c>
+      <c r="B239" s="2">
+        <v>3</v>
+      </c>
+      <c r="C239" s="2">
+        <v>2</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F239" s="4">
+        <v>4</v>
+      </c>
+      <c r="G239" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H239" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="2">
+        <v>239</v>
+      </c>
+      <c r="B240" s="2">
+        <v>3</v>
+      </c>
+      <c r="C240" s="2">
+        <v>2</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F240" s="4">
+        <v>4</v>
+      </c>
+      <c r="G240" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H240" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="2">
+        <v>240</v>
+      </c>
+      <c r="B241" s="2">
+        <v>3</v>
+      </c>
+      <c r="C241" s="2">
+        <v>2</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F241" s="4">
+        <v>4</v>
+      </c>
+      <c r="G241" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H241" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="2">
+        <v>241</v>
+      </c>
+      <c r="B242" s="2">
+        <v>3</v>
+      </c>
+      <c r="C242" s="2">
+        <v>2</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F242" s="4">
+        <v>4</v>
+      </c>
+      <c r="G242" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H242" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="2">
+        <v>242</v>
+      </c>
+      <c r="B243" s="2">
+        <v>3</v>
+      </c>
+      <c r="C243" s="2">
+        <v>2</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F243" s="4">
+        <v>4</v>
+      </c>
+      <c r="G243" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H243" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="2">
+        <v>243</v>
+      </c>
+      <c r="B244" s="2">
+        <v>3</v>
+      </c>
+      <c r="C244" s="2">
+        <v>2</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F244" s="4">
+        <v>4</v>
+      </c>
+      <c r="G244" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H244" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="2">
+        <v>244</v>
+      </c>
+      <c r="B245" s="2">
+        <v>3</v>
+      </c>
+      <c r="C245" s="2">
+        <v>2</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F245" s="4">
+        <v>4</v>
+      </c>
+      <c r="G245" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H245" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="2">
+        <v>245</v>
+      </c>
+      <c r="B246" s="2">
+        <v>3</v>
+      </c>
+      <c r="C246" s="2">
+        <v>2</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F246" s="4">
+        <v>4</v>
+      </c>
+      <c r="G246" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H246" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="2">
+        <v>246</v>
+      </c>
+      <c r="B247" s="2">
+        <v>3</v>
+      </c>
+      <c r="C247" s="2">
+        <v>2</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F247" s="4">
+        <v>4</v>
+      </c>
+      <c r="G247" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H247" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="2">
+        <v>247</v>
+      </c>
+      <c r="B248" s="2">
+        <v>3</v>
+      </c>
+      <c r="C248" s="2">
+        <v>2</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F248" s="4">
+        <v>4</v>
+      </c>
+      <c r="G248" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H248" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="2">
+        <v>248</v>
+      </c>
+      <c r="B249" s="2">
+        <v>3</v>
+      </c>
+      <c r="C249" s="2">
+        <v>2</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F249" s="4">
+        <v>4</v>
+      </c>
+      <c r="G249" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H249" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="2">
+        <v>249</v>
+      </c>
+      <c r="B250" s="2">
+        <v>3</v>
+      </c>
+      <c r="C250" s="2">
+        <v>2</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F250" s="4">
+        <v>4</v>
+      </c>
+      <c r="G250" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H250" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="2">
+        <v>250</v>
+      </c>
+      <c r="B251" s="2">
+        <v>3</v>
+      </c>
+      <c r="C251" s="2">
+        <v>2</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F251" s="4">
+        <v>4</v>
+      </c>
+      <c r="G251" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H251" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/products/fixtures/articles.xlsx
+++ b/products/fixtures/articles.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djang\Documents\Soccersystems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djang\Documents\Soccersystems\products\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EE38FD-634C-41F9-B9BA-195BB8B8A228}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86B8159-10EF-4E82-BAC3-87339C91F90A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="352">
   <si>
     <t>slug</t>
   </si>
@@ -52,9 +52,6 @@
     <t>tag</t>
   </si>
   <si>
-    <t>articles/no_image.svg</t>
-  </si>
-  <si>
     <t>Letter Ö (baby)</t>
   </si>
   <si>
@@ -301,6 +298,633 @@
     <t>Naamblok KUDUS</t>
   </si>
   <si>
+    <t>Nr. 0 (short)</t>
+  </si>
+  <si>
+    <t>Nr. 1 (short)</t>
+  </si>
+  <si>
+    <t>Nr. 2 (short)</t>
+  </si>
+  <si>
+    <t>Nr. 3 (short)</t>
+  </si>
+  <si>
+    <t>Nr. 4 (short)</t>
+  </si>
+  <si>
+    <t>Nr. 5 (short)</t>
+  </si>
+  <si>
+    <t>Nr. 6 (short)</t>
+  </si>
+  <si>
+    <t>Nr. 7 (short)</t>
+  </si>
+  <si>
+    <t>Nr. 8 (short)</t>
+  </si>
+  <si>
+    <t>Nr. 9 (short)</t>
+  </si>
+  <si>
+    <t>XH21</t>
+  </si>
+  <si>
+    <t>XH210400</t>
+  </si>
+  <si>
+    <t>XH21040A</t>
+  </si>
+  <si>
+    <t>XH21040B</t>
+  </si>
+  <si>
+    <t>XH21040C</t>
+  </si>
+  <si>
+    <t>XH21040D</t>
+  </si>
+  <si>
+    <t>XH21040E</t>
+  </si>
+  <si>
+    <t>XH21040F</t>
+  </si>
+  <si>
+    <t>XH21040G</t>
+  </si>
+  <si>
+    <t>XH21040H</t>
+  </si>
+  <si>
+    <t>XH21040I</t>
+  </si>
+  <si>
+    <t>XH21040J</t>
+  </si>
+  <si>
+    <t>XH21040K</t>
+  </si>
+  <si>
+    <t>XH21040L</t>
+  </si>
+  <si>
+    <t>XH21040M</t>
+  </si>
+  <si>
+    <t>XH21040N</t>
+  </si>
+  <si>
+    <t>XH21040O</t>
+  </si>
+  <si>
+    <t>XH21040P</t>
+  </si>
+  <si>
+    <t>XH21040Q</t>
+  </si>
+  <si>
+    <t>XH21040R</t>
+  </si>
+  <si>
+    <t>XH21040S</t>
+  </si>
+  <si>
+    <t>XH21040T</t>
+  </si>
+  <si>
+    <t>XH21040U</t>
+  </si>
+  <si>
+    <t>XH21040V</t>
+  </si>
+  <si>
+    <t>XH21040W</t>
+  </si>
+  <si>
+    <t>XH21040X</t>
+  </si>
+  <si>
+    <t>XH21040Y</t>
+  </si>
+  <si>
+    <t>XH21040Z</t>
+  </si>
+  <si>
+    <t>XH21060_</t>
+  </si>
+  <si>
+    <t>XH210600</t>
+  </si>
+  <si>
+    <t>XH21060A</t>
+  </si>
+  <si>
+    <t>XH21060B</t>
+  </si>
+  <si>
+    <t>XH21060C</t>
+  </si>
+  <si>
+    <t>XH21060D</t>
+  </si>
+  <si>
+    <t>XH21060E</t>
+  </si>
+  <si>
+    <t>XH21060F</t>
+  </si>
+  <si>
+    <t>XH21060G</t>
+  </si>
+  <si>
+    <t>XH21060H</t>
+  </si>
+  <si>
+    <t>XH21060I</t>
+  </si>
+  <si>
+    <t>XH21060J</t>
+  </si>
+  <si>
+    <t>XH21060K</t>
+  </si>
+  <si>
+    <t>XH21060L</t>
+  </si>
+  <si>
+    <t>XH21060M</t>
+  </si>
+  <si>
+    <t>XH21060N</t>
+  </si>
+  <si>
+    <t>XH21060O</t>
+  </si>
+  <si>
+    <t>XH21060P</t>
+  </si>
+  <si>
+    <t>XH21060Q</t>
+  </si>
+  <si>
+    <t>XH21060R</t>
+  </si>
+  <si>
+    <t>XH21060S</t>
+  </si>
+  <si>
+    <t>XH21060T</t>
+  </si>
+  <si>
+    <t>XH21060U</t>
+  </si>
+  <si>
+    <t>XH21060V</t>
+  </si>
+  <si>
+    <t>XH21060W</t>
+  </si>
+  <si>
+    <t>XH21060X</t>
+  </si>
+  <si>
+    <t>XH21060Y</t>
+  </si>
+  <si>
+    <t>XH21060Z</t>
+  </si>
+  <si>
+    <t>XH2106AY</t>
+  </si>
+  <si>
+    <t>XH2106AZ</t>
+  </si>
+  <si>
+    <t>XH2106BD</t>
+  </si>
+  <si>
+    <t>XH2106BY</t>
+  </si>
+  <si>
+    <t>XH2106EP</t>
+  </si>
+  <si>
+    <t>XH2106GH</t>
+  </si>
+  <si>
+    <t>XH2106HE</t>
+  </si>
+  <si>
+    <t>XH2106JR</t>
+  </si>
+  <si>
+    <t>XH2106KN</t>
+  </si>
+  <si>
+    <t>XH2106KR</t>
+  </si>
+  <si>
+    <t>XH2106KS</t>
+  </si>
+  <si>
+    <t>XH2106LD</t>
+  </si>
+  <si>
+    <t>XH2106MI</t>
+  </si>
+  <si>
+    <t>XH2106MZ</t>
+  </si>
+  <si>
+    <t>XH2106NS</t>
+  </si>
+  <si>
+    <t>XH2106SS</t>
+  </si>
+  <si>
+    <t>XH2106TC</t>
+  </si>
+  <si>
+    <t>XH2106TE</t>
+  </si>
+  <si>
+    <t>XH2106TO</t>
+  </si>
+  <si>
+    <t>XH2106TR</t>
+  </si>
+  <si>
+    <t>XH211000</t>
+  </si>
+  <si>
+    <t>XH211001</t>
+  </si>
+  <si>
+    <t>XH211002</t>
+  </si>
+  <si>
+    <t>XH211003</t>
+  </si>
+  <si>
+    <t>XH211004</t>
+  </si>
+  <si>
+    <t>XH211005</t>
+  </si>
+  <si>
+    <t>XH211006</t>
+  </si>
+  <si>
+    <t>XH211007</t>
+  </si>
+  <si>
+    <t>XH211008</t>
+  </si>
+  <si>
+    <t>XH211009</t>
+  </si>
+  <si>
+    <t>XH211600</t>
+  </si>
+  <si>
+    <t>XH211601</t>
+  </si>
+  <si>
+    <t>XH211602</t>
+  </si>
+  <si>
+    <t>XH211603</t>
+  </si>
+  <si>
+    <t>XH211604</t>
+  </si>
+  <si>
+    <t>XH211605</t>
+  </si>
+  <si>
+    <t>XH211606</t>
+  </si>
+  <si>
+    <t>XH211607</t>
+  </si>
+  <si>
+    <t>XH211608</t>
+  </si>
+  <si>
+    <t>XH211609</t>
+  </si>
+  <si>
+    <t>XH212500</t>
+  </si>
+  <si>
+    <t>XH212501</t>
+  </si>
+  <si>
+    <t>XH212502</t>
+  </si>
+  <si>
+    <t>XH212503</t>
+  </si>
+  <si>
+    <t>XH212504</t>
+  </si>
+  <si>
+    <t>XH212505</t>
+  </si>
+  <si>
+    <t>XH212506</t>
+  </si>
+  <si>
+    <t>XH212507</t>
+  </si>
+  <si>
+    <t>XH212508</t>
+  </si>
+  <si>
+    <t>XH212509</t>
+  </si>
+  <si>
+    <t>Naamblok IDRISSI</t>
+  </si>
+  <si>
+    <t>Naamblok RENSCH</t>
+  </si>
+  <si>
+    <t>Naamblok MARTÍNEZ</t>
+  </si>
+  <si>
+    <t>Naamblok TRAORÉ</t>
+  </si>
+  <si>
+    <t>Naamblok ÁLVAREZ</t>
+  </si>
+  <si>
+    <t>XH2106II</t>
+  </si>
+  <si>
+    <t>XH2106RH</t>
+  </si>
+  <si>
+    <t>XH21040_</t>
+  </si>
+  <si>
+    <t>Leestekens (baby)</t>
+  </si>
+  <si>
+    <t>XH2106UR</t>
+  </si>
+  <si>
+    <t>Naamblok ÜNÜVAR</t>
+  </si>
+  <si>
+    <t>articles/XH210400.svg</t>
+  </si>
+  <si>
+    <t>articles/XH21040A.svg</t>
+  </si>
+  <si>
+    <t>articles/XH21040B.svg</t>
+  </si>
+  <si>
+    <t>articles/XH21040C.svg</t>
+  </si>
+  <si>
+    <t>articles/XH21040D.svg</t>
+  </si>
+  <si>
+    <t>articles/XH21040E.svg</t>
+  </si>
+  <si>
+    <t>articles/XH21040F.svg</t>
+  </si>
+  <si>
+    <t>articles/XH21040G.svg</t>
+  </si>
+  <si>
+    <t>articles/XH21040H.svg</t>
+  </si>
+  <si>
+    <t>articles/XH21040I.svg</t>
+  </si>
+  <si>
+    <t>articles/XH21040J.svg</t>
+  </si>
+  <si>
+    <t>articles/XH21040K.svg</t>
+  </si>
+  <si>
+    <t>articles/XH21040L.svg</t>
+  </si>
+  <si>
+    <t>articles/XH21040M.svg</t>
+  </si>
+  <si>
+    <t>articles/XH21040N.svg</t>
+  </si>
+  <si>
+    <t>articles/XH21040O.svg</t>
+  </si>
+  <si>
+    <t>articles/XH21040P.svg</t>
+  </si>
+  <si>
+    <t>articles/XH21040Q.svg</t>
+  </si>
+  <si>
+    <t>articles/XH21040R.svg</t>
+  </si>
+  <si>
+    <t>articles/XH21040S.svg</t>
+  </si>
+  <si>
+    <t>articles/XH21040T.svg</t>
+  </si>
+  <si>
+    <t>articles/XH21040U.svg</t>
+  </si>
+  <si>
+    <t>articles/XH21040V.svg</t>
+  </si>
+  <si>
+    <t>articles/XH21040W.svg</t>
+  </si>
+  <si>
+    <t>articles/XH21040X.svg</t>
+  </si>
+  <si>
+    <t>articles/XH21040Y.svg</t>
+  </si>
+  <si>
+    <t>articles/XH21040Z.svg</t>
+  </si>
+  <si>
+    <t>articles/XH21040_.svg</t>
+  </si>
+  <si>
+    <t>articles/XH2106AY.svg</t>
+  </si>
+  <si>
+    <t>articles/XH2106AZ.svg</t>
+  </si>
+  <si>
+    <t>articles/XH2106BD.svg</t>
+  </si>
+  <si>
+    <t>articles/XH2106BY.svg</t>
+  </si>
+  <si>
+    <t>articles/XH2106EP.svg</t>
+  </si>
+  <si>
+    <t>articles/XH2106GH.svg</t>
+  </si>
+  <si>
+    <t>articles/XH2106HE.svg</t>
+  </si>
+  <si>
+    <t>articles/XH2106II.svg</t>
+  </si>
+  <si>
+    <t>articles/XH2106JR.svg</t>
+  </si>
+  <si>
+    <t>articles/XH2106KN.svg</t>
+  </si>
+  <si>
+    <t>articles/XH2106KR.svg</t>
+  </si>
+  <si>
+    <t>articles/XH2106KS.svg</t>
+  </si>
+  <si>
+    <t>articles/XH2106LD.svg</t>
+  </si>
+  <si>
+    <t>articles/XH2106MI.svg</t>
+  </si>
+  <si>
+    <t>articles/XH2106MZ.svg</t>
+  </si>
+  <si>
+    <t>articles/XH2106NS.svg</t>
+  </si>
+  <si>
+    <t>articles/XH2106RH.svg</t>
+  </si>
+  <si>
+    <t>articles/XH2106SS.svg</t>
+  </si>
+  <si>
+    <t>articles/XH2106TC.svg</t>
+  </si>
+  <si>
+    <t>articles/XH2106TE.svg</t>
+  </si>
+  <si>
+    <t>articles/XH2106TO.svg</t>
+  </si>
+  <si>
+    <t>articles/XH2106TR.svg</t>
+  </si>
+  <si>
+    <t>articles/XH2106UR.svg</t>
+  </si>
+  <si>
+    <t>articles/XH211001.svg</t>
+  </si>
+  <si>
+    <t>articles/XH211002.svg</t>
+  </si>
+  <si>
+    <t>articles/XH211003.svg</t>
+  </si>
+  <si>
+    <t>articles/XH211004.svg</t>
+  </si>
+  <si>
+    <t>articles/XH211005.svg</t>
+  </si>
+  <si>
+    <t>articles/XH211006.svg</t>
+  </si>
+  <si>
+    <t>articles/XH211007.svg</t>
+  </si>
+  <si>
+    <t>articles/XH211008.svg</t>
+  </si>
+  <si>
+    <t>articles/XH211009.svg</t>
+  </si>
+  <si>
+    <t>articles/XH211600.svg</t>
+  </si>
+  <si>
+    <t>articles/XH211601.svg</t>
+  </si>
+  <si>
+    <t>articles/XH211602.svg</t>
+  </si>
+  <si>
+    <t>articles/XH211603.svg</t>
+  </si>
+  <si>
+    <t>articles/XH211604.svg</t>
+  </si>
+  <si>
+    <t>articles/XH211605.svg</t>
+  </si>
+  <si>
+    <t>articles/XH211606.svg</t>
+  </si>
+  <si>
+    <t>articles/XH211607.svg</t>
+  </si>
+  <si>
+    <t>articles/XH211608.svg</t>
+  </si>
+  <si>
+    <t>articles/XH211609.svg</t>
+  </si>
+  <si>
+    <t>articles/XH212500.svg</t>
+  </si>
+  <si>
+    <t>articles/XH212501.svg</t>
+  </si>
+  <si>
+    <t>articles/XH212502.svg</t>
+  </si>
+  <si>
+    <t>articles/XH212503.svg</t>
+  </si>
+  <si>
+    <t>articles/XH212504.svg</t>
+  </si>
+  <si>
+    <t>articles/XH212505.svg</t>
+  </si>
+  <si>
+    <t>articles/XH212506.svg</t>
+  </si>
+  <si>
+    <t>articles/XH212507.svg</t>
+  </si>
+  <si>
+    <t>articles/XH212508.svg</t>
+  </si>
+  <si>
+    <t>articles/XH212509.svg</t>
+  </si>
+  <si>
+    <t>articles/XH211000.svg</t>
+  </si>
+  <si>
+    <t>XH210900</t>
+  </si>
+  <si>
     <t>Nr. 0 (baby)</t>
   </si>
   <si>
@@ -331,267 +955,6 @@
     <t>Nr. 9 (baby)</t>
   </si>
   <si>
-    <t>Nr. 0 (short)</t>
-  </si>
-  <si>
-    <t>Nr. 1 (short)</t>
-  </si>
-  <si>
-    <t>Nr. 2 (short)</t>
-  </si>
-  <si>
-    <t>Nr. 3 (short)</t>
-  </si>
-  <si>
-    <t>Nr. 4 (short)</t>
-  </si>
-  <si>
-    <t>Nr. 5 (short)</t>
-  </si>
-  <si>
-    <t>Nr. 6 (short)</t>
-  </si>
-  <si>
-    <t>Nr. 7 (short)</t>
-  </si>
-  <si>
-    <t>Nr. 8 (short)</t>
-  </si>
-  <si>
-    <t>Nr. 9 (short)</t>
-  </si>
-  <si>
-    <t>XH21</t>
-  </si>
-  <si>
-    <t>XH210400</t>
-  </si>
-  <si>
-    <t>XH21040A</t>
-  </si>
-  <si>
-    <t>XH21040B</t>
-  </si>
-  <si>
-    <t>XH21040C</t>
-  </si>
-  <si>
-    <t>XH21040D</t>
-  </si>
-  <si>
-    <t>XH21040E</t>
-  </si>
-  <si>
-    <t>XH21040F</t>
-  </si>
-  <si>
-    <t>XH21040G</t>
-  </si>
-  <si>
-    <t>XH21040H</t>
-  </si>
-  <si>
-    <t>XH21040I</t>
-  </si>
-  <si>
-    <t>XH21040J</t>
-  </si>
-  <si>
-    <t>XH21040K</t>
-  </si>
-  <si>
-    <t>XH21040L</t>
-  </si>
-  <si>
-    <t>XH21040M</t>
-  </si>
-  <si>
-    <t>XH21040N</t>
-  </si>
-  <si>
-    <t>XH21040O</t>
-  </si>
-  <si>
-    <t>XH21040P</t>
-  </si>
-  <si>
-    <t>XH21040Q</t>
-  </si>
-  <si>
-    <t>XH21040R</t>
-  </si>
-  <si>
-    <t>XH21040S</t>
-  </si>
-  <si>
-    <t>XH21040T</t>
-  </si>
-  <si>
-    <t>XH21040U</t>
-  </si>
-  <si>
-    <t>XH21040V</t>
-  </si>
-  <si>
-    <t>XH21040W</t>
-  </si>
-  <si>
-    <t>XH21040X</t>
-  </si>
-  <si>
-    <t>XH21040Y</t>
-  </si>
-  <si>
-    <t>XH21040Z</t>
-  </si>
-  <si>
-    <t>XH21060_</t>
-  </si>
-  <si>
-    <t>XH210600</t>
-  </si>
-  <si>
-    <t>XH21060A</t>
-  </si>
-  <si>
-    <t>XH21060B</t>
-  </si>
-  <si>
-    <t>XH21060C</t>
-  </si>
-  <si>
-    <t>XH21060D</t>
-  </si>
-  <si>
-    <t>XH21060E</t>
-  </si>
-  <si>
-    <t>XH21060F</t>
-  </si>
-  <si>
-    <t>XH21060G</t>
-  </si>
-  <si>
-    <t>XH21060H</t>
-  </si>
-  <si>
-    <t>XH21060I</t>
-  </si>
-  <si>
-    <t>XH21060J</t>
-  </si>
-  <si>
-    <t>XH21060K</t>
-  </si>
-  <si>
-    <t>XH21060L</t>
-  </si>
-  <si>
-    <t>XH21060M</t>
-  </si>
-  <si>
-    <t>XH21060N</t>
-  </si>
-  <si>
-    <t>XH21060O</t>
-  </si>
-  <si>
-    <t>XH21060P</t>
-  </si>
-  <si>
-    <t>XH21060Q</t>
-  </si>
-  <si>
-    <t>XH21060R</t>
-  </si>
-  <si>
-    <t>XH21060S</t>
-  </si>
-  <si>
-    <t>XH21060T</t>
-  </si>
-  <si>
-    <t>XH21060U</t>
-  </si>
-  <si>
-    <t>XH21060V</t>
-  </si>
-  <si>
-    <t>XH21060W</t>
-  </si>
-  <si>
-    <t>XH21060X</t>
-  </si>
-  <si>
-    <t>XH21060Y</t>
-  </si>
-  <si>
-    <t>XH21060Z</t>
-  </si>
-  <si>
-    <t>XH2106AY</t>
-  </si>
-  <si>
-    <t>XH2106AZ</t>
-  </si>
-  <si>
-    <t>XH2106BD</t>
-  </si>
-  <si>
-    <t>XH2106BY</t>
-  </si>
-  <si>
-    <t>XH2106EP</t>
-  </si>
-  <si>
-    <t>XH2106GH</t>
-  </si>
-  <si>
-    <t>XH2106HE</t>
-  </si>
-  <si>
-    <t>XH2106JR</t>
-  </si>
-  <si>
-    <t>XH2106KN</t>
-  </si>
-  <si>
-    <t>XH2106KR</t>
-  </si>
-  <si>
-    <t>XH2106KS</t>
-  </si>
-  <si>
-    <t>XH2106LD</t>
-  </si>
-  <si>
-    <t>XH2106MI</t>
-  </si>
-  <si>
-    <t>XH2106MZ</t>
-  </si>
-  <si>
-    <t>XH2106NS</t>
-  </si>
-  <si>
-    <t>XH2106SS</t>
-  </si>
-  <si>
-    <t>XH2106TC</t>
-  </si>
-  <si>
-    <t>XH2106TE</t>
-  </si>
-  <si>
-    <t>XH2106TO</t>
-  </si>
-  <si>
-    <t>XH2106TR</t>
-  </si>
-  <si>
-    <t>XH210900</t>
-  </si>
-  <si>
     <t>XH210901</t>
   </si>
   <si>
@@ -619,122 +982,107 @@
     <t>XH210909</t>
   </si>
   <si>
-    <t>XH211000</t>
-  </si>
-  <si>
-    <t>XH211001</t>
-  </si>
-  <si>
-    <t>XH211002</t>
-  </si>
-  <si>
-    <t>XH211003</t>
-  </si>
-  <si>
-    <t>XH211004</t>
-  </si>
-  <si>
-    <t>XH211005</t>
-  </si>
-  <si>
-    <t>XH211006</t>
-  </si>
-  <si>
-    <t>XH211007</t>
-  </si>
-  <si>
-    <t>XH211008</t>
-  </si>
-  <si>
-    <t>XH211009</t>
-  </si>
-  <si>
-    <t>XH211600</t>
-  </si>
-  <si>
-    <t>XH211601</t>
-  </si>
-  <si>
-    <t>XH211602</t>
-  </si>
-  <si>
-    <t>XH211603</t>
-  </si>
-  <si>
-    <t>XH211604</t>
-  </si>
-  <si>
-    <t>XH211605</t>
-  </si>
-  <si>
-    <t>XH211606</t>
-  </si>
-  <si>
-    <t>XH211607</t>
-  </si>
-  <si>
-    <t>XH211608</t>
-  </si>
-  <si>
-    <t>XH211609</t>
-  </si>
-  <si>
-    <t>XH212500</t>
-  </si>
-  <si>
-    <t>XH212501</t>
-  </si>
-  <si>
-    <t>XH212502</t>
-  </si>
-  <si>
-    <t>XH212503</t>
-  </si>
-  <si>
-    <t>XH212504</t>
-  </si>
-  <si>
-    <t>XH212505</t>
-  </si>
-  <si>
-    <t>XH212506</t>
-  </si>
-  <si>
-    <t>XH212507</t>
-  </si>
-  <si>
-    <t>XH212508</t>
-  </si>
-  <si>
-    <t>XH212509</t>
-  </si>
-  <si>
-    <t>Naamblok IDRISSI</t>
-  </si>
-  <si>
-    <t>Naamblok RENSCH</t>
-  </si>
-  <si>
-    <t>Naamblok MARTÍNEZ</t>
-  </si>
-  <si>
-    <t>Naamblok TRAORÉ</t>
-  </si>
-  <si>
-    <t>Naamblok ÁLVAREZ</t>
-  </si>
-  <si>
-    <t>XH2106II</t>
-  </si>
-  <si>
-    <t>XH2106RH</t>
+    <t>articles/XH210900.svg</t>
+  </si>
+  <si>
+    <t>articles/XH210901.svg</t>
+  </si>
+  <si>
+    <t>articles/XH210902.svg</t>
+  </si>
+  <si>
+    <t>articles/XH210903.svg</t>
+  </si>
+  <si>
+    <t>articles/XH210904.svg</t>
+  </si>
+  <si>
+    <t>articles/XH210905.svg</t>
+  </si>
+  <si>
+    <t>articles/XH210906.svg</t>
+  </si>
+  <si>
+    <t>articles/XH210907.svg</t>
+  </si>
+  <si>
+    <t>articles/XH210908.svg</t>
+  </si>
+  <si>
+    <t>articles/XH210909.svg</t>
+  </si>
+  <si>
+    <t>03748807</t>
+  </si>
+  <si>
+    <t>02698366</t>
+  </si>
+  <si>
+    <t>07366639</t>
+  </si>
+  <si>
+    <t>74567593</t>
+  </si>
+  <si>
+    <t>84328556</t>
+  </si>
+  <si>
+    <t>00708985</t>
+  </si>
+  <si>
+    <t>69541953</t>
+  </si>
+  <si>
+    <t>62387771</t>
+  </si>
+  <si>
+    <t>75586895</t>
+  </si>
+  <si>
+    <t>82086884</t>
+  </si>
+  <si>
+    <t>98132593</t>
+  </si>
+  <si>
+    <t>37519096</t>
+  </si>
+  <si>
+    <t>08226602</t>
+  </si>
+  <si>
+    <t>78748553</t>
+  </si>
+  <si>
+    <t>46355701</t>
+  </si>
+  <si>
+    <t>53341886</t>
+  </si>
+  <si>
+    <t>44741835</t>
+  </si>
+  <si>
+    <t>90991859</t>
+  </si>
+  <si>
+    <t>52739881</t>
+  </si>
+  <si>
+    <t>90950994</t>
+  </si>
+  <si>
+    <t>45810217</t>
+  </si>
+  <si>
+    <t>74053845</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,6 +1094,18 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -773,15 +1133,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1085,10 +1462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J118"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58:J78"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,7 +1473,7 @@
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="4" max="4" width="22" style="11" customWidth="1"/>
     <col min="5" max="5" width="30.140625" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
@@ -1115,7 +1492,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1138,78 +1515,80 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="A2" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7">
+        <v>99701577</v>
+      </c>
+      <c r="E2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9">
         <v>66294575</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2">
         <v>4</v>
       </c>
-      <c r="G2" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
-        <v>23463452</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
+      <c r="G3" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="4">
-        <v>41003681</v>
+      <c r="D4" s="10">
+        <v>23463452</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -1221,24 +1600,24 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="4">
-        <v>25497166</v>
+      <c r="D5" s="10">
+        <v>41003681</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -1250,24 +1629,24 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="4">
-        <v>63547363</v>
+      <c r="D6" s="10">
+        <v>25497166</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -1278,25 +1657,25 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" t="s">
-        <v>10</v>
+      <c r="I6" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="4">
-        <v>55181312</v>
+      <c r="D7" s="10">
+        <v>63547363</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -1307,25 +1686,25 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" t="s">
-        <v>10</v>
+      <c r="I7" s="2" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="4">
-        <v>63057604</v>
+      <c r="D8" s="10">
+        <v>55181312</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -1336,25 +1715,25 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" t="s">
-        <v>10</v>
+      <c r="I8" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="4">
-        <v>215169</v>
+      <c r="D9" s="10">
+        <v>63057604</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -1365,25 +1744,25 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" t="s">
-        <v>10</v>
+      <c r="I9" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="4">
-        <v>69063528</v>
+      <c r="D10" s="10">
+        <v>215169</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -1394,25 +1773,25 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" t="s">
-        <v>10</v>
+      <c r="I10" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="4">
-        <v>68940053</v>
+      <c r="D11" s="10">
+        <v>69063528</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F11">
         <v>4</v>
@@ -1423,25 +1802,25 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" t="s">
-        <v>10</v>
+      <c r="I11" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" s="4">
-        <v>912140</v>
+      <c r="D12" s="10">
+        <v>68940053</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -1452,25 +1831,25 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12" t="s">
-        <v>10</v>
+      <c r="I12" s="2" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="4">
-        <v>87052367</v>
+      <c r="D13" s="10">
+        <v>912140</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F13">
         <v>4</v>
@@ -1481,25 +1860,25 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" t="s">
-        <v>10</v>
+      <c r="I13" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" s="4">
-        <v>58410124</v>
+      <c r="D14" s="10">
+        <v>87052367</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -1510,25 +1889,25 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" t="s">
-        <v>10</v>
+      <c r="I14" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" s="4">
-        <v>49153691</v>
+      <c r="D15" s="10">
+        <v>58410124</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -1539,25 +1918,25 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15" t="s">
-        <v>10</v>
+      <c r="I15" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="4">
-        <v>28437697</v>
+      <c r="D16" s="10">
+        <v>49153691</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F16">
         <v>4</v>
@@ -1568,25 +1947,25 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16" t="s">
-        <v>10</v>
+      <c r="I16" s="2" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" s="4">
-        <v>68493865</v>
+      <c r="D17" s="10">
+        <v>28437697</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F17">
         <v>4</v>
@@ -1597,25 +1976,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17" t="s">
-        <v>10</v>
+      <c r="I17" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18" s="4">
-        <v>72062139</v>
+      <c r="D18" s="10">
+        <v>68493865</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -1626,25 +2005,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18" t="s">
-        <v>10</v>
+      <c r="I18" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19" s="4">
-        <v>74486054</v>
+      <c r="D19" s="10">
+        <v>72062139</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F19">
         <v>4</v>
@@ -1655,25 +2034,25 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19" t="s">
-        <v>10</v>
+      <c r="I19" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="D20" s="4">
-        <v>94863215</v>
+      <c r="D20" s="10">
+        <v>74486054</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -1684,25 +2063,25 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" t="s">
-        <v>10</v>
+      <c r="I20" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" s="4">
-        <v>92216569</v>
+      <c r="D21" s="10">
+        <v>94863215</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -1713,25 +2092,25 @@
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21" t="s">
-        <v>10</v>
+      <c r="I21" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="4">
-        <v>2233360</v>
+      <c r="D22" s="10">
+        <v>92216569</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F22">
         <v>4</v>
@@ -1742,25 +2121,25 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22" t="s">
-        <v>10</v>
+      <c r="I22" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" s="4">
-        <v>47581048</v>
+      <c r="D23" s="10">
+        <v>2233360</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F23">
         <v>4</v>
@@ -1771,25 +2150,25 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="I23" t="s">
-        <v>10</v>
+      <c r="I23" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="4">
-        <v>33537183</v>
+      <c r="D24" s="10">
+        <v>47581048</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F24">
         <v>4</v>
@@ -1800,25 +2179,25 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24" t="s">
-        <v>10</v>
+      <c r="I24" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="4">
-        <v>4516636</v>
+      <c r="D25" s="10">
+        <v>33537183</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F25">
         <v>4</v>
@@ -1829,25 +2208,25 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25" t="s">
-        <v>10</v>
+      <c r="I25" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26" s="4">
-        <v>72152627</v>
+      <c r="D26" s="10">
+        <v>4516636</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F26">
         <v>4</v>
@@ -1858,25 +2237,25 @@
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="I26" t="s">
-        <v>10</v>
+      <c r="I26" s="2" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" s="4">
-        <v>81189414</v>
+      <c r="D27" s="10">
+        <v>72152627</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F27">
         <v>4</v>
@@ -1887,25 +2266,25 @@
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="I27" t="s">
-        <v>10</v>
+      <c r="I27" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" s="4">
-        <v>80672735</v>
+      <c r="D28" s="10">
+        <v>81189414</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F28">
         <v>4</v>
@@ -1916,28 +2295,28 @@
       <c r="H28">
         <v>0</v>
       </c>
-      <c r="I28" t="s">
-        <v>10</v>
+      <c r="I28" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29" s="4">
-        <v>33936283</v>
+      <c r="D29" s="10">
+        <v>80672735</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G29" s="3">
         <v>0.1</v>
@@ -1945,25 +2324,25 @@
       <c r="H29">
         <v>0</v>
       </c>
-      <c r="I29" t="s">
-        <v>10</v>
+      <c r="I29" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
-      <c r="D30" s="4">
-        <v>37416376</v>
+      <c r="D30" s="10">
+        <v>33936283</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F30">
         <v>6</v>
@@ -1974,25 +2353,25 @@
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="I30" t="s">
-        <v>10</v>
+      <c r="I30" s="2" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
-      <c r="D31" s="4">
-        <v>57591490</v>
+      <c r="D31" s="10">
+        <v>37416376</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F31">
         <v>6</v>
@@ -2003,25 +2382,25 @@
       <c r="H31">
         <v>0</v>
       </c>
-      <c r="I31" t="s">
-        <v>10</v>
+      <c r="I31" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
-      <c r="D32" s="4">
-        <v>72603300</v>
+      <c r="D32" s="10">
+        <v>57591490</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F32">
         <v>6</v>
@@ -2033,24 +2412,24 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>10</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
-      <c r="D33" s="4">
-        <v>34066194</v>
+      <c r="D33" s="10">
+        <v>72603300</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F33">
         <v>6</v>
@@ -2062,24 +2441,24 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
-      <c r="D34" s="4">
-        <v>27728833</v>
+      <c r="D34" s="10">
+        <v>34066194</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F34">
         <v>6</v>
@@ -2090,25 +2469,25 @@
       <c r="H34">
         <v>0</v>
       </c>
-      <c r="I34" t="s">
-        <v>10</v>
+      <c r="I34" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
-      <c r="D35" s="4">
-        <v>48593880</v>
+      <c r="D35" s="10">
+        <v>27728833</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F35">
         <v>6</v>
@@ -2119,25 +2498,25 @@
       <c r="H35">
         <v>0</v>
       </c>
-      <c r="I35" t="s">
-        <v>10</v>
+      <c r="I35" s="2" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="D36" s="4">
-        <v>46497022</v>
+      <c r="D36" s="10">
+        <v>48593880</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F36">
         <v>6</v>
@@ -2148,25 +2527,25 @@
       <c r="H36">
         <v>0</v>
       </c>
-      <c r="I36" t="s">
-        <v>10</v>
+      <c r="I36" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
-      <c r="D37" s="4">
-        <v>98231335</v>
+      <c r="D37" s="10">
+        <v>46497022</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F37">
         <v>6</v>
@@ -2177,25 +2556,25 @@
       <c r="H37">
         <v>0</v>
       </c>
-      <c r="I37" t="s">
-        <v>10</v>
+      <c r="I37" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
-      <c r="D38" s="4">
-        <v>7101665</v>
+      <c r="D38" s="10">
+        <v>98231335</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F38">
         <v>6</v>
@@ -2206,25 +2585,25 @@
       <c r="H38">
         <v>0</v>
       </c>
-      <c r="I38" t="s">
-        <v>10</v>
+      <c r="I38" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
-      <c r="D39" s="4">
-        <v>49869441</v>
+      <c r="D39" s="10">
+        <v>7101665</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F39">
         <v>6</v>
@@ -2235,25 +2614,25 @@
       <c r="H39">
         <v>0</v>
       </c>
-      <c r="I39" t="s">
-        <v>10</v>
+      <c r="I39" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
-      <c r="D40" s="4">
-        <v>69849104</v>
+      <c r="D40" s="10">
+        <v>49869441</v>
       </c>
       <c r="E40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F40">
         <v>6</v>
@@ -2264,25 +2643,25 @@
       <c r="H40">
         <v>0</v>
       </c>
-      <c r="I40" t="s">
-        <v>10</v>
+      <c r="I40" s="2" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
-      <c r="D41" s="4">
-        <v>21351350</v>
+      <c r="D41" s="10">
+        <v>69849104</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F41">
         <v>6</v>
@@ -2293,25 +2672,25 @@
       <c r="H41">
         <v>0</v>
       </c>
-      <c r="I41" t="s">
-        <v>10</v>
+      <c r="I41" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
-      <c r="D42" s="4">
-        <v>1575552</v>
+      <c r="D42" s="10">
+        <v>21351350</v>
       </c>
       <c r="E42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F42">
         <v>6</v>
@@ -2322,25 +2701,25 @@
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42" t="s">
-        <v>10</v>
+      <c r="I42" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
-      <c r="D43" s="4">
-        <v>60478683</v>
+      <c r="D43" s="10">
+        <v>1575552</v>
       </c>
       <c r="E43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F43">
         <v>6</v>
@@ -2351,25 +2730,25 @@
       <c r="H43">
         <v>0</v>
       </c>
-      <c r="I43" t="s">
-        <v>10</v>
+      <c r="I43" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
-      <c r="D44" s="4">
-        <v>89058304</v>
+      <c r="D44" s="10">
+        <v>60478683</v>
       </c>
       <c r="E44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F44">
         <v>6</v>
@@ -2380,25 +2759,25 @@
       <c r="H44">
         <v>0</v>
       </c>
-      <c r="I44" t="s">
-        <v>10</v>
+      <c r="I44" s="2" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
-      <c r="D45" s="4">
-        <v>81294390</v>
+      <c r="D45" s="10">
+        <v>89058304</v>
       </c>
       <c r="E45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F45">
         <v>6</v>
@@ -2409,25 +2788,25 @@
       <c r="H45">
         <v>0</v>
       </c>
-      <c r="I45" t="s">
-        <v>10</v>
+      <c r="I45" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
-      <c r="D46" s="4">
-        <v>39777494</v>
+      <c r="D46" s="10">
+        <v>81294390</v>
       </c>
       <c r="E46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F46">
         <v>6</v>
@@ -2438,25 +2817,25 @@
       <c r="H46">
         <v>0</v>
       </c>
-      <c r="I46" t="s">
-        <v>10</v>
+      <c r="I46" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
-      <c r="D47" s="4">
-        <v>80320760</v>
+      <c r="D47" s="10">
+        <v>39777494</v>
       </c>
       <c r="E47" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F47">
         <v>6</v>
@@ -2467,25 +2846,25 @@
       <c r="H47">
         <v>0</v>
       </c>
-      <c r="I47" t="s">
-        <v>10</v>
+      <c r="I47" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B48" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
-      <c r="D48" s="4">
-        <v>42717400</v>
+      <c r="D48" s="10">
+        <v>80320760</v>
       </c>
       <c r="E48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F48">
         <v>6</v>
@@ -2496,25 +2875,25 @@
       <c r="H48">
         <v>0</v>
       </c>
-      <c r="I48" t="s">
-        <v>10</v>
+      <c r="I48" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B49" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
-      <c r="D49" s="4">
-        <v>20655231</v>
+      <c r="D49" s="10">
+        <v>42717400</v>
       </c>
       <c r="E49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F49">
         <v>6</v>
@@ -2525,25 +2904,25 @@
       <c r="H49">
         <v>0</v>
       </c>
-      <c r="I49" t="s">
-        <v>10</v>
+      <c r="I49" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B50" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
-      <c r="D50" s="4">
-        <v>24253278</v>
+      <c r="D50" s="10">
+        <v>20655231</v>
       </c>
       <c r="E50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F50">
         <v>6</v>
@@ -2554,25 +2933,25 @@
       <c r="H50">
         <v>0</v>
       </c>
-      <c r="I50" t="s">
-        <v>10</v>
+      <c r="I50" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
-      <c r="D51" s="4">
-        <v>60661624</v>
+      <c r="D51" s="10">
+        <v>24253278</v>
       </c>
       <c r="E51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F51">
         <v>6</v>
@@ -2583,25 +2962,25 @@
       <c r="H51">
         <v>0</v>
       </c>
-      <c r="I51" t="s">
-        <v>10</v>
+      <c r="I51" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
-      <c r="D52" s="4">
-        <v>26292839</v>
+      <c r="D52" s="10">
+        <v>60661624</v>
       </c>
       <c r="E52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F52">
         <v>6</v>
@@ -2612,25 +2991,25 @@
       <c r="H52">
         <v>0</v>
       </c>
-      <c r="I52" t="s">
-        <v>10</v>
+      <c r="I52" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
-      <c r="D53" s="4">
-        <v>48809033</v>
+      <c r="D53" s="10">
+        <v>26292839</v>
       </c>
       <c r="E53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53">
         <v>6</v>
@@ -2641,25 +3020,25 @@
       <c r="H53">
         <v>0</v>
       </c>
-      <c r="I53" t="s">
-        <v>10</v>
+      <c r="I53" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B54" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
-      <c r="D54" s="4">
-        <v>95680325</v>
+      <c r="D54" s="10">
+        <v>48809033</v>
       </c>
       <c r="E54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54">
         <v>6</v>
@@ -2670,25 +3049,25 @@
       <c r="H54">
         <v>0</v>
       </c>
-      <c r="I54" t="s">
-        <v>10</v>
+      <c r="I54" s="2" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
-      <c r="D55" s="4">
-        <v>70166165</v>
+      <c r="D55" s="10">
+        <v>95680325</v>
       </c>
       <c r="E55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55">
         <v>6</v>
@@ -2699,25 +3078,25 @@
       <c r="H55">
         <v>0</v>
       </c>
-      <c r="I55" t="s">
-        <v>10</v>
+      <c r="I55" s="2" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
-      <c r="D56" s="4">
-        <v>45542867</v>
+      <c r="D56" s="10">
+        <v>70166165</v>
       </c>
       <c r="E56" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F56">
         <v>6</v>
@@ -2728,57 +3107,54 @@
       <c r="H56">
         <v>0</v>
       </c>
-      <c r="I56" t="s">
-        <v>10</v>
+      <c r="I56" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57" s="4">
-        <v>69675381</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>2</v>
+      </c>
+      <c r="D57" s="10">
+        <v>45542867</v>
+      </c>
+      <c r="E57" t="s">
+        <v>64</v>
       </c>
       <c r="F57">
         <v>6</v>
       </c>
       <c r="G57" s="3">
-        <v>1.25</v>
+        <v>0.1</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
-      <c r="I57" t="s">
-        <v>10</v>
-      </c>
-      <c r="J57">
-        <v>2</v>
+      <c r="I57" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
-      <c r="D58" s="4">
-        <v>97310114</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>233</v>
+      <c r="D58" s="10">
+        <v>69675381</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="F58">
         <v>6</v>
@@ -2790,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -2798,19 +3174,19 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
-      <c r="D59" s="4">
-        <v>81765974</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>67</v>
+      <c r="D59" s="10">
+        <v>97310114</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="F59">
         <v>6</v>
@@ -2822,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>10</v>
+        <v>248</v>
       </c>
       <c r="J59">
         <v>2</v>
@@ -2830,19 +3206,19 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B60" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
-      <c r="D60" s="4">
-        <v>76357752</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>68</v>
+      <c r="D60" s="10">
+        <v>81765974</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="F60">
         <v>6</v>
@@ -2854,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>10</v>
+        <v>249</v>
       </c>
       <c r="J60">
         <v>2</v>
@@ -2862,19 +3238,19 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B61" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
-      <c r="D61" s="4">
-        <v>2077619</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>69</v>
+      <c r="D61" s="10">
+        <v>76357752</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="F61">
         <v>6</v>
@@ -2886,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="J61">
         <v>2</v>
@@ -2894,19 +3270,19 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B62" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
-      <c r="D62" s="4">
-        <v>44364699</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>70</v>
+      <c r="D62" s="10">
+        <v>2077619</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="F62">
         <v>6</v>
@@ -2918,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="J62">
         <v>2</v>
@@ -2926,19 +3302,19 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
-      <c r="D63" s="4">
-        <v>76497632</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>71</v>
+      <c r="D63" s="10">
+        <v>44364699</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="F63">
         <v>6</v>
@@ -2950,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -2958,19 +3334,19 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>234</v>
+        <v>164</v>
       </c>
       <c r="B64" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
-      <c r="D64" s="4">
-        <v>46868161</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>229</v>
+      <c r="D64" s="10">
+        <v>76497632</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="F64">
         <v>6</v>
@@ -2982,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>10</v>
+        <v>253</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -2990,19 +3366,19 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
-      <c r="D65" s="4">
-        <v>18559613</v>
+      <c r="D65" s="10">
+        <v>46868161</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>72</v>
+        <v>208</v>
       </c>
       <c r="F65">
         <v>6</v>
@@ -3014,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>10</v>
+        <v>254</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -3022,19 +3398,19 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B66" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
-      <c r="D66" s="4">
-        <v>41674808</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>73</v>
+      <c r="D66" s="10">
+        <v>18559613</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="F66">
         <v>6</v>
@@ -3046,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="J66">
         <v>2</v>
@@ -3054,19 +3430,19 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B67" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
-      <c r="D67" s="4">
-        <v>5139991</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>74</v>
+      <c r="D67" s="10">
+        <v>41674808</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="F67">
         <v>6</v>
@@ -3078,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="J67">
         <v>2</v>
@@ -3086,19 +3462,19 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B68" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
-      <c r="D68" s="4">
-        <v>63123138</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>92</v>
+      <c r="D68" s="10">
+        <v>5139991</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="F68">
         <v>6</v>
@@ -3110,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>10</v>
+        <v>257</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -3118,19 +3494,19 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B69" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
-      <c r="D69" s="4">
-        <v>23479239</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>75</v>
+      <c r="D69" s="10">
+        <v>63123138</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="F69">
         <v>6</v>
@@ -3142,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>10</v>
+        <v>258</v>
       </c>
       <c r="J69">
         <v>2</v>
@@ -3150,19 +3526,19 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B70" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
-      <c r="D70" s="4">
-        <v>11352861</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>76</v>
+      <c r="D70" s="10">
+        <v>23479239</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="F70">
         <v>6</v>
@@ -3174,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>10</v>
+        <v>259</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -3182,19 +3558,19 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B71" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
-      <c r="D71" s="4">
-        <v>31361931</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>231</v>
+      <c r="D71" s="10">
+        <v>11352861</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="F71">
         <v>6</v>
@@ -3206,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>10</v>
+        <v>260</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -3214,19 +3590,19 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B72" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
-      <c r="D72" s="4">
-        <v>93020326</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>77</v>
+      <c r="D72" s="10">
+        <v>31361931</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="F72">
         <v>6</v>
@@ -3238,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>10</v>
+        <v>261</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -3246,19 +3622,19 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="B73" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
-      <c r="D73" s="4">
-        <v>95376582</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>230</v>
+      <c r="D73" s="10">
+        <v>93020326</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="F73">
         <v>6</v>
@@ -3270,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>10</v>
+        <v>262</v>
       </c>
       <c r="J73">
         <v>2</v>
@@ -3278,19 +3654,19 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="B74" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
-      <c r="D74" s="4">
-        <v>81952034</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>78</v>
+      <c r="D74" s="10">
+        <v>95376582</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="F74">
         <v>6</v>
@@ -3302,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>10</v>
+        <v>263</v>
       </c>
       <c r="J74">
         <v>2</v>
@@ -3310,19 +3686,19 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B75" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
-      <c r="D75" s="4">
-        <v>66530924</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>79</v>
+      <c r="D75" s="10">
+        <v>81952034</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="F75">
         <v>6</v>
@@ -3334,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>10</v>
+        <v>264</v>
       </c>
       <c r="J75">
         <v>2</v>
@@ -3342,19 +3718,19 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B76" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
-      <c r="D76" s="4">
-        <v>41491837</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>232</v>
+      <c r="D76" s="10">
+        <v>66530924</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="F76">
         <v>6</v>
@@ -3366,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>10</v>
+        <v>265</v>
       </c>
       <c r="J76">
         <v>2</v>
@@ -3374,19 +3750,19 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B77" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
-      <c r="D77" s="4">
-        <v>76730752</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>80</v>
+      <c r="D77" s="10">
+        <v>41491837</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="F77">
         <v>6</v>
@@ -3398,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>10</v>
+        <v>266</v>
       </c>
       <c r="J77">
         <v>2</v>
@@ -3406,19 +3782,19 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B78" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
-      <c r="D78" s="4">
-        <v>96560776</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>81</v>
+      <c r="D78" s="10">
+        <v>76730752</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F78">
         <v>6</v>
@@ -3430,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>10</v>
+        <v>267</v>
       </c>
       <c r="J78">
         <v>2</v>
@@ -3438,77 +3814,83 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B79" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C79">
-        <v>3</v>
-      </c>
-      <c r="D79" s="4">
-        <v>74567593</v>
-      </c>
-      <c r="E79" t="s">
-        <v>93</v>
+        <v>1</v>
+      </c>
+      <c r="D79" s="10">
+        <v>96560776</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="F79">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G79" s="3">
-        <v>0.38</v>
+        <v>1.25</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>10</v>
+        <v>268</v>
+      </c>
+      <c r="J79">
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="B80" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C80">
-        <v>3</v>
-      </c>
-      <c r="D80" s="4">
-        <v>84328556</v>
-      </c>
-      <c r="E80" t="s">
-        <v>94</v>
+        <v>1</v>
+      </c>
+      <c r="D80" s="10">
+        <v>18712761</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="F80">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G80" s="3">
-        <v>0.38</v>
+        <v>1.25</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>10</v>
+        <v>269</v>
+      </c>
+      <c r="J80">
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>191</v>
+        <v>300</v>
       </c>
       <c r="B81" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C81">
         <v>3</v>
       </c>
-      <c r="D81" s="4">
-        <v>708985</v>
+      <c r="D81" s="11" t="s">
+        <v>333</v>
       </c>
       <c r="E81" t="s">
-        <v>95</v>
+        <v>301</v>
       </c>
       <c r="F81">
         <v>10</v>
@@ -3520,24 +3902,24 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>10</v>
+        <v>320</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>192</v>
+        <v>311</v>
       </c>
       <c r="B82" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C82">
         <v>3</v>
       </c>
-      <c r="D82" s="4">
-        <v>69541953</v>
+      <c r="D82" s="11" t="s">
+        <v>334</v>
       </c>
       <c r="E82" t="s">
-        <v>96</v>
+        <v>302</v>
       </c>
       <c r="F82">
         <v>10</v>
@@ -3549,24 +3931,24 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>10</v>
+        <v>321</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="B83" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C83">
         <v>3</v>
       </c>
-      <c r="D83" s="4">
-        <v>62387771</v>
+      <c r="D83" s="11" t="s">
+        <v>335</v>
       </c>
       <c r="E83" t="s">
-        <v>97</v>
+        <v>303</v>
       </c>
       <c r="F83">
         <v>10</v>
@@ -3578,24 +3960,24 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>10</v>
+        <v>322</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>194</v>
+        <v>313</v>
       </c>
       <c r="B84" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C84">
         <v>3</v>
       </c>
-      <c r="D84" s="4">
-        <v>75586895</v>
+      <c r="D84" s="11" t="s">
+        <v>336</v>
       </c>
       <c r="E84" t="s">
-        <v>98</v>
+        <v>304</v>
       </c>
       <c r="F84">
         <v>10</v>
@@ -3607,24 +3989,24 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>10</v>
+        <v>323</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>195</v>
+        <v>314</v>
       </c>
       <c r="B85" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C85">
         <v>3</v>
       </c>
-      <c r="D85" s="4">
-        <v>82086884</v>
+      <c r="D85" s="11" t="s">
+        <v>337</v>
       </c>
       <c r="E85" t="s">
-        <v>99</v>
+        <v>305</v>
       </c>
       <c r="F85">
         <v>10</v>
@@ -3636,24 +4018,24 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>10</v>
+        <v>324</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>196</v>
+        <v>315</v>
       </c>
       <c r="B86" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C86">
         <v>3</v>
       </c>
-      <c r="D86" s="4">
-        <v>98132593</v>
+      <c r="D86" s="11" t="s">
+        <v>338</v>
       </c>
       <c r="E86" t="s">
-        <v>100</v>
+        <v>306</v>
       </c>
       <c r="F86">
         <v>10</v>
@@ -3665,24 +4047,24 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>10</v>
+        <v>325</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>197</v>
+        <v>316</v>
       </c>
       <c r="B87" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C87">
         <v>3</v>
       </c>
-      <c r="D87" s="4">
-        <v>37519096</v>
+      <c r="D87" s="11" t="s">
+        <v>339</v>
       </c>
       <c r="E87" t="s">
-        <v>101</v>
+        <v>307</v>
       </c>
       <c r="F87">
         <v>10</v>
@@ -3694,24 +4076,24 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>10</v>
+        <v>326</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>198</v>
+        <v>317</v>
       </c>
       <c r="B88" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C88">
         <v>3</v>
       </c>
-      <c r="D88" s="4">
-        <v>8226602</v>
+      <c r="D88" s="11" t="s">
+        <v>340</v>
       </c>
       <c r="E88" t="s">
-        <v>102</v>
+        <v>308</v>
       </c>
       <c r="F88">
         <v>10</v>
@@ -3723,24 +4105,24 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>199</v>
+        <v>318</v>
       </c>
       <c r="B89" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C89">
         <v>3</v>
       </c>
-      <c r="D89" s="4">
-        <v>78748553</v>
+      <c r="D89" s="11" t="s">
+        <v>341</v>
       </c>
       <c r="E89" t="s">
-        <v>103</v>
+        <v>309</v>
       </c>
       <c r="F89">
         <v>10</v>
@@ -3752,24 +4134,24 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>10</v>
+        <v>328</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="B90" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C90">
         <v>3</v>
       </c>
-      <c r="D90" s="4">
-        <v>46355701</v>
+      <c r="D90" s="11" t="s">
+        <v>342</v>
       </c>
       <c r="E90" t="s">
-        <v>104</v>
+        <v>310</v>
       </c>
       <c r="F90">
         <v>10</v>
@@ -3781,24 +4163,24 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>10</v>
+        <v>329</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="B91" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C91">
         <v>3</v>
       </c>
-      <c r="D91" s="4">
-        <v>53341886</v>
+      <c r="D91" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="E91" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F91">
         <v>10</v>
@@ -3810,24 +4192,24 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>10</v>
+        <v>299</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="B92" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C92">
         <v>3</v>
       </c>
-      <c r="D92" s="4">
-        <v>44741835</v>
+      <c r="D92" s="10" t="s">
+        <v>344</v>
       </c>
       <c r="E92" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F92">
         <v>10</v>
@@ -3839,24 +4221,24 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>10</v>
+        <v>270</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="B93" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C93">
         <v>3</v>
       </c>
-      <c r="D93" s="4">
-        <v>3748807</v>
+      <c r="D93" s="10" t="s">
+        <v>345</v>
       </c>
       <c r="E93" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="F93">
         <v>10</v>
@@ -3868,24 +4250,24 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>10</v>
+        <v>271</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="B94" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C94">
         <v>3</v>
       </c>
-      <c r="D94" s="4">
-        <v>90991859</v>
+      <c r="D94" s="10" t="s">
+        <v>346</v>
       </c>
       <c r="E94" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F94">
         <v>10</v>
@@ -3897,24 +4279,24 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>10</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="B95" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C95">
         <v>3</v>
       </c>
-      <c r="D95" s="4">
-        <v>52739881</v>
+      <c r="D95" s="10" t="s">
+        <v>330</v>
       </c>
       <c r="E95" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F95">
         <v>10</v>
@@ -3926,24 +4308,24 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="B96" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C96">
         <v>3</v>
       </c>
-      <c r="D96" s="4">
-        <v>90950994</v>
+      <c r="D96" s="10" t="s">
+        <v>347</v>
       </c>
       <c r="E96" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F96">
         <v>10</v>
@@ -3955,24 +4337,24 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>10</v>
+        <v>274</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="B97" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C97">
         <v>3</v>
       </c>
-      <c r="D97" s="4">
-        <v>45810217</v>
+      <c r="D97" s="10" t="s">
+        <v>348</v>
       </c>
       <c r="E97" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F97">
         <v>10</v>
@@ -3984,24 +4366,24 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>10</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="B98" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C98">
         <v>3</v>
       </c>
-      <c r="D98" s="4">
-        <v>74053845</v>
+      <c r="D98" s="10" t="s">
+        <v>349</v>
       </c>
       <c r="E98" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="F98">
         <v>10</v>
@@ -4013,82 +4395,82 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>10</v>
+        <v>276</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="B99" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C99">
         <v>3</v>
       </c>
-      <c r="D99" s="4">
-        <v>22525202</v>
+      <c r="D99" s="10" t="s">
+        <v>350</v>
       </c>
       <c r="E99" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="F99">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G99" s="3">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>10</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="B100" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C100">
         <v>3</v>
       </c>
-      <c r="D100" s="4">
-        <v>98923842</v>
+      <c r="D100" s="10" t="s">
+        <v>351</v>
       </c>
       <c r="E100" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="F100">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G100" s="3">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>10</v>
+        <v>278</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="B101" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C101">
         <v>3</v>
       </c>
-      <c r="D101" s="4">
-        <v>75212742</v>
+      <c r="D101" s="10">
+        <v>22525202</v>
       </c>
       <c r="E101" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F101">
         <v>16</v>
@@ -4100,24 +4482,24 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>10</v>
+        <v>279</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="B102" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C102">
         <v>3</v>
       </c>
-      <c r="D102" s="4">
-        <v>37675836</v>
+      <c r="D102" s="10">
+        <v>98923842</v>
       </c>
       <c r="E102" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F102">
         <v>16</v>
@@ -4129,24 +4511,24 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>10</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="B103" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C103">
         <v>3</v>
       </c>
-      <c r="D103" s="4">
-        <v>46874412</v>
+      <c r="D103" s="10">
+        <v>75212742</v>
       </c>
       <c r="E103" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F103">
         <v>16</v>
@@ -4158,24 +4540,24 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>10</v>
+        <v>281</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="B104" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C104">
         <v>3</v>
       </c>
-      <c r="D104" s="4">
-        <v>2698366</v>
+      <c r="D104" s="10">
+        <v>37675836</v>
       </c>
       <c r="E104" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F104">
         <v>16</v>
@@ -4187,24 +4569,24 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>10</v>
+        <v>282</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="B105" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C105">
         <v>3</v>
       </c>
-      <c r="D105" s="4">
-        <v>39823023</v>
+      <c r="D105" s="10">
+        <v>46874412</v>
       </c>
       <c r="E105" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F105">
         <v>16</v>
@@ -4216,24 +4598,24 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>10</v>
+        <v>283</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="B106" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C106">
         <v>3</v>
       </c>
-      <c r="D106" s="4">
-        <v>66301106</v>
+      <c r="D106" s="10" t="s">
+        <v>331</v>
       </c>
       <c r="E106" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F106">
         <v>16</v>
@@ -4245,24 +4627,24 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>10</v>
+        <v>284</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="B107" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C107">
         <v>3</v>
       </c>
-      <c r="D107" s="4">
-        <v>41179047</v>
+      <c r="D107" s="10">
+        <v>39823023</v>
       </c>
       <c r="E107" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F107">
         <v>16</v>
@@ -4274,24 +4656,24 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>10</v>
+        <v>285</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="B108" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C108">
         <v>3</v>
       </c>
-      <c r="D108" s="4">
-        <v>38108918</v>
+      <c r="D108" s="10">
+        <v>66301106</v>
       </c>
       <c r="E108" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F108">
         <v>16</v>
@@ -4303,82 +4685,82 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>10</v>
+        <v>286</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="B109" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C109">
         <v>3</v>
       </c>
-      <c r="D109" s="4">
-        <v>61023692</v>
+      <c r="D109" s="10">
+        <v>41179047</v>
       </c>
       <c r="E109" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F109">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G109" s="3">
-        <v>0.72</v>
+        <v>0.47</v>
       </c>
       <c r="H109">
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>10</v>
+        <v>287</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="B110" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C110">
         <v>3</v>
       </c>
-      <c r="D110" s="4">
-        <v>87564015</v>
+      <c r="D110" s="10">
+        <v>38108918</v>
       </c>
       <c r="E110" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F110">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G110" s="3">
-        <v>0.72</v>
+        <v>0.47</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>10</v>
+        <v>288</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C111">
         <v>3</v>
       </c>
-      <c r="D111" s="4">
-        <v>78487124</v>
+      <c r="D111" s="10">
+        <v>61023692</v>
       </c>
       <c r="E111" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F111">
         <v>25</v>
@@ -4390,24 +4772,24 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>10</v>
+        <v>289</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="B112" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C112">
         <v>3</v>
       </c>
-      <c r="D112" s="4">
-        <v>42813248</v>
+      <c r="D112" s="10">
+        <v>87564015</v>
       </c>
       <c r="E112" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F112">
         <v>25</v>
@@ -4419,24 +4801,24 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>10</v>
+        <v>290</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C113">
         <v>3</v>
       </c>
-      <c r="D113" s="4">
-        <v>7366639</v>
+      <c r="D113" s="10">
+        <v>78487124</v>
       </c>
       <c r="E113" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F113">
         <v>25</v>
@@ -4448,24 +4830,24 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>10</v>
+        <v>291</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C114">
         <v>3</v>
       </c>
-      <c r="D114" s="4">
-        <v>81199577</v>
+      <c r="D114" s="10">
+        <v>42813248</v>
       </c>
       <c r="E114" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F114">
         <v>25</v>
@@ -4477,24 +4859,24 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>10</v>
+        <v>292</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="B115" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C115">
         <v>3</v>
       </c>
-      <c r="D115" s="4">
-        <v>65840612</v>
+      <c r="D115" s="10" t="s">
+        <v>332</v>
       </c>
       <c r="E115" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F115">
         <v>25</v>
@@ -4506,24 +4888,24 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>10</v>
+        <v>293</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="B116" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C116">
         <v>3</v>
       </c>
-      <c r="D116" s="4">
-        <v>19901803</v>
+      <c r="D116" s="10">
+        <v>81199577</v>
       </c>
       <c r="E116" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F116">
         <v>25</v>
@@ -4535,24 +4917,24 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>10</v>
+        <v>294</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="B117" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C117">
         <v>3</v>
       </c>
-      <c r="D117" s="4">
-        <v>65082633</v>
+      <c r="D117" s="10">
+        <v>65840612</v>
       </c>
       <c r="E117" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F117">
         <v>25</v>
@@ -4564,24 +4946,24 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>10</v>
+        <v>295</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="B118" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C118">
         <v>3</v>
       </c>
-      <c r="D118" s="4">
-        <v>70937939</v>
+      <c r="D118" s="10">
+        <v>19901803</v>
       </c>
       <c r="E118" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F118">
         <v>25</v>
@@ -4593,7 +4975,65 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>10</v>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>206</v>
+      </c>
+      <c r="B119" t="s">
+        <v>102</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="D119" s="10">
+        <v>65082633</v>
+      </c>
+      <c r="E119" t="s">
+        <v>89</v>
+      </c>
+      <c r="F119">
+        <v>25</v>
+      </c>
+      <c r="G119" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>207</v>
+      </c>
+      <c r="B120" t="s">
+        <v>102</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+      <c r="D120" s="10">
+        <v>70937939</v>
+      </c>
+      <c r="E120" t="s">
+        <v>90</v>
+      </c>
+      <c r="F120">
+        <v>25</v>
+      </c>
+      <c r="G120" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
